--- a/bug-on-fix/Bug_ StarView [4].xlsx
+++ b/bug-on-fix/Bug_ StarView [4].xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\git\15-7\resort\bug-on-fix\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bug!$A$10:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -870,7 +875,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -905,7 +910,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1116,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1143,7 @@
       </c>
       <c r="C3" s="1">
         <f>COUNTIF(F11:F55, "Open")</f>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1147,7 +1152,7 @@
       </c>
       <c r="C4" s="1">
         <f>COUNTIF(F11:F55, "Fix")</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1630,7 +1635,7 @@
         <v>64</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>10</v>
@@ -1728,7 +1733,7 @@
         <v>76</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>10</v>
@@ -1746,7 +1751,7 @@
         <v>77</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>10</v>

--- a/bug-on-fix/Bug_ StarView [4].xlsx
+++ b/bug-on-fix/Bug_ StarView [4].xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\git\15-7\resort\bug-on-fix\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bug!$A$10:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -317,12 +312,24 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Không cần thiết, khi 
+nhập sai 1 trong 2 
+trường chỉ cần thông 
+báo là đã nhập sai 1 
+trong 2 thôi chứ</t>
+  </si>
+  <si>
+    <t>Hiện tại thì có trường hợp 
+phải đăng nhập lại, có trường 
+hợp lại không cần, nên nếu gặp trường hợp này thì chụp màn hình thao tác</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +347,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -444,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,6 +503,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -875,7 +892,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -910,7 +927,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1121,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1151,7 @@
     <col min="5" max="5" width="42.140625" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1143,7 +1160,7 @@
       </c>
       <c r="C3" s="1">
         <f>COUNTIF(F11:F55, "Open")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1152,7 +1169,7 @@
       </c>
       <c r="C4" s="1">
         <f>COUNTIF(F11:F55, "Fix")</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1161,7 +1178,7 @@
       </c>
       <c r="C5" s="1">
         <f>COUNTIF(F11:F55, "Reopen" )</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1396,7 +1413,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10</v>
       </c>
@@ -1416,7 +1433,9 @@
       <c r="G20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1433,7 +1452,7 @@
         <v>58</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>10</v>
@@ -1475,7 +1494,7 @@
         <v>38</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>10</v>
@@ -1499,7 +1518,7 @@
         <v>39</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>10</v>
@@ -1547,7 +1566,7 @@
         <v>48</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>10</v>
@@ -1774,7 +1793,9 @@
       <c r="G37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="21" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -1936,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:A176"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A27"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bug-on-fix/Bug_ StarView [4].xlsx
+++ b/bug-on-fix/Bug_ StarView [4].xlsx
@@ -492,6 +492,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,9 +506,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1225,7 @@
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1249,7 +1249,7 @@
       <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5" t="s">
         <v>14</v>
@@ -1269,7 +1269,7 @@
       <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
@@ -1291,7 +1291,7 @@
       <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="7"/>
       <c r="D14" s="5" t="s">
         <v>19</v>
@@ -1311,7 +1311,7 @@
       <c r="A15" s="1">
         <v>5</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="A16" s="1">
         <v>6</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6" t="s">
         <v>69</v>
@@ -1353,7 +1353,7 @@
       <c r="A17" s="1">
         <v>7</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="7"/>
       <c r="D17" s="5" t="s">
         <v>23</v>
@@ -1373,7 +1373,7 @@
       <c r="A18" s="1">
         <v>8</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="1"/>
@@ -1395,7 +1395,7 @@
       <c r="A19" s="1">
         <v>9</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1417,7 +1417,7 @@
       <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="A21" s="1">
         <v>11</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="4" t="s">
         <v>35</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="A22" s="1">
         <v>12</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1487,7 +1487,7 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="4"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3" t="s">
@@ -1507,7 +1507,7 @@
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="11" t="s">
         <v>44</v>
       </c>
@@ -1531,7 +1531,7 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="1" t="s">
         <v>45</v>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="5" t="s">
         <v>46</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>17</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="G37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="17" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1964,442 +1964,442 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="21"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+      <c r="A35" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
+      <c r="A38" s="21"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
+      <c r="A39" s="21"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
+      <c r="A40" s="21"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+      <c r="A41" s="21"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
+      <c r="A42" s="21"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
+      <c r="A43" s="21"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
+      <c r="A44" s="21"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
+      <c r="A45" s="21"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
+      <c r="A46" s="21"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
+      <c r="A47" s="21"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
+      <c r="A48" s="21"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
+      <c r="A49" s="21"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
+      <c r="A50" s="21"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
+      <c r="A51" s="21"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
+      <c r="A52" s="21"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
+      <c r="A53" s="21"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
+      <c r="A54" s="21"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
+      <c r="A55" s="21"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
+      <c r="A56" s="21"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
+      <c r="A57" s="21"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20">
+      <c r="A64" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
+      <c r="A65" s="21"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
+      <c r="A66" s="21"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
+      <c r="A67" s="21"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
+      <c r="A68" s="21"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
+      <c r="A69" s="21"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
+      <c r="A70" s="21"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
+      <c r="A71" s="21"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
+      <c r="A72" s="21"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
+      <c r="A73" s="21"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
+      <c r="A74" s="21"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
+      <c r="A75" s="21"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
+      <c r="A76" s="21"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
+      <c r="A77" s="21"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
+      <c r="A78" s="21"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
+      <c r="A79" s="21"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
+      <c r="A80" s="21"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
+      <c r="A81" s="21"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
+      <c r="A82" s="21"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
+      <c r="A83" s="21"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
+      <c r="A84" s="21"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
+      <c r="A85" s="21"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
+      <c r="A86" s="21"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
+      <c r="A87" s="21"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="20">
+      <c r="A93" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="20"/>
+      <c r="A94" s="21"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
+      <c r="A95" s="21"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="20"/>
+      <c r="A96" s="21"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
+      <c r="A97" s="21"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
+      <c r="A98" s="21"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
+      <c r="A99" s="21"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="20"/>
+      <c r="A100" s="21"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
+      <c r="A101" s="21"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
+      <c r="A102" s="21"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
+      <c r="A103" s="21"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="20"/>
+      <c r="A104" s="21"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
+      <c r="A105" s="21"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
+      <c r="A106" s="21"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
+      <c r="A107" s="21"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="20"/>
+      <c r="A108" s="21"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
+      <c r="A109" s="21"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
+      <c r="A110" s="21"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
+      <c r="A111" s="21"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
+      <c r="A112" s="21"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
+      <c r="A113" s="21"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
+      <c r="A114" s="21"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
+      <c r="A115" s="21"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
+      <c r="A116" s="21"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="20">
+      <c r="A123" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="20"/>
+      <c r="A124" s="21"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
+      <c r="A125" s="21"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="20"/>
+      <c r="A126" s="21"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="20"/>
+      <c r="A127" s="21"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="20"/>
+      <c r="A128" s="21"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="20"/>
+      <c r="A129" s="21"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="20"/>
+      <c r="A130" s="21"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="20"/>
+      <c r="A131" s="21"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="20"/>
+      <c r="A132" s="21"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="20"/>
+      <c r="A133" s="21"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="20"/>
+      <c r="A134" s="21"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="20"/>
+      <c r="A135" s="21"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="20"/>
+      <c r="A136" s="21"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="20"/>
+      <c r="A137" s="21"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="20"/>
+      <c r="A138" s="21"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="20"/>
+      <c r="A139" s="21"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="20"/>
+      <c r="A140" s="21"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="20"/>
+      <c r="A141" s="21"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="20"/>
+      <c r="A142" s="21"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="20"/>
+      <c r="A143" s="21"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
+      <c r="A144" s="21"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="20"/>
+      <c r="A145" s="21"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="20">
+      <c r="A153" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="20"/>
+      <c r="A154" s="21"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="20"/>
+      <c r="A155" s="21"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="20"/>
+      <c r="A156" s="21"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="20"/>
+      <c r="A157" s="21"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="20"/>
+      <c r="A158" s="21"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="20"/>
+      <c r="A159" s="21"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="20"/>
+      <c r="A160" s="21"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="20"/>
+      <c r="A161" s="21"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="20"/>
+      <c r="A162" s="21"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="20"/>
+      <c r="A163" s="21"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="20"/>
+      <c r="A164" s="21"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="20"/>
+      <c r="A165" s="21"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="20"/>
+      <c r="A166" s="21"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="20"/>
+      <c r="A167" s="21"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="20"/>
+      <c r="A168" s="21"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="20"/>
+      <c r="A169" s="21"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="20"/>
+      <c r="A170" s="21"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="20"/>
+      <c r="A171" s="21"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="20"/>
+      <c r="A172" s="21"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="20"/>
+      <c r="A173" s="21"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="20"/>
+      <c r="A174" s="21"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="20"/>
+      <c r="A175" s="21"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="20"/>
+      <c r="A176" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
